--- a/data/Fig R2.xlsx
+++ b/data/Fig R2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE80202-AA9A-4459-8151-37D85922BB7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" tabRatio="896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plots" sheetId="5" r:id="rId1"/>
@@ -24,19 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="40">
   <si>
     <t>UPV SWEEP TRACE FILE</t>
   </si>
@@ -157,20 +151,11 @@
   <si>
     <t>R&amp;S UPP400 Serial no: 140002, 2022-25-1, 13:29:23</t>
   </si>
-  <si>
-    <t>&lt;- Supplementary</t>
-  </si>
-  <si>
-    <t>like this -&gt;</t>
-  </si>
-  <si>
-    <t>2 axis with %</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +250,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4280,7 +4264,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4312,7 +4295,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4320,6 +4302,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4399,7 +4382,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8413,7 +8395,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8445,7 +8426,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8453,6 +8433,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9619,7 +9600,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814FC07E-C2E5-49AA-B805-1B2F0C07FCD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9657,7 +9638,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814FC07E-C2E5-49AA-B805-1B2F0C07FCD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9692,7 +9673,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9747,7 +9734,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9802,7 +9795,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9857,7 +9856,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9912,7 +9917,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9948,44 +9959,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>106556</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14420850" y="4914900"/>
-          <a:ext cx="3973706" cy="2885848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -10255,31 +10228,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="V12:V33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="12" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10287,12 +10244,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12209,7 +12164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
@@ -14131,12 +14086,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16053,12 +16006,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17975,12 +17926,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -19897,12 +19846,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -21819,12 +21766,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -23741,12 +23686,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -25663,12 +25606,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27585,12 +27526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
